--- a/regression/testcase_ConvertLab_Setting.xlsx
+++ b/regression/testcase_ConvertLab_Setting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -84,228 +84,57 @@
     <t>None</t>
   </si>
   <si>
-    <t>张庆云</t>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色和用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在设置菜单里增加一个全权限的角色
+2 新增一个用户，使用刚才创建的角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 用户可以使用创建的用户名和密码正常登陆系统
+2 用户拥有全部权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱鸿宇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户关注微信公众号后并收到自动回复文本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 点击设置-营销渠道设置-微信设置，点击ConvertLab招聘设置
-2 点击被添加自动回复，选择文本，输入文本信息，点击保存
-3 关注【ConvertLab招聘】微信公众号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 该用户收到公共号的自动回复，且回复信息与输入文本信息保持一致
-2 在主页用户数和新增用户数都增加1
-3 成功建立了1个用户，且用户名称与微信昵称一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道002</t>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到图片回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 已知关注【淘礼满天下】的用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 点击设置-营销渠道设置-微信设置，点击桃李你满天下设置
-2 点击关键词自动回复，点击添加新规则，输入信息：规则名【图片回复】，关键词【图图 片片】，匹配方式【模糊匹配】，回复选择【图片】，点击上传图片，选择并上传，点击保存
-3 用户在【淘礼满天下】公众号下输入【图图】
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建新规则，信息与实际所填信息一致
-2 用户输入关键字后，收到图片回复，且与上传图片一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到卡劵回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 点击设置-营销渠道设置-微信设置，点击桃李你满天下设置
-2 点击关键词自动回复，点击添加新规则，输入规则名【收到卡劵回复】，关键词【卡劵 领取】，匹配方式【模糊匹配】，回复选择【卡劵】，选择【到店即送小礼品】卡劵，点击保存
-3 用户在【淘礼满天下】公众号下输入【领取】
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建新规则，信息与实际所填信息一致
-2 用户输入关键字后收到卡劵回复，且与所选卡劵一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到相关营销页回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 点击设置-营销渠道设置-微信设置，点击淘礼满天下设置
-2 点击关键词自动回复，点击添加新规则，输入规则名【收到营销页回复】，关键词【测试 看看】，匹配方式【模糊匹配】，回复选择【营销页】，选择【2.1测试营销页】营销页，点击保存
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 成功创建新规则，信息与实际所填信息一致
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户输入关键字005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在公众号中输入关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用微信关注【淘礼满天下】公众号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 用户在【淘礼满天下】公众号下输入关键字【测试】
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 用户输入关键字后收到营销页回复，且与所选营销页一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建权限用户001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在用户权限管理中创建新用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登入到ConvertLab系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 设置-用户管理（用户权限管理）-用户，点击创建用户，填写信息，手机【zz】，姓名【zz】，密码【123】，确认密码【123】，角色权限选择【测试权限】，点击创建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户创建成功，与所填信息保持一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新账户登入系统002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用新创建的用户登入ConvertLab系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 ConvertLab登入界面
-2 执行用例：创建权限用户001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 在系统登入界面输入用户名【zz】,密码【zz】,点击登入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功登入到ConvertLab系统
-2 账户权限为客服权限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除权限用户003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除用户权限管理中的用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 设置-用户管理（用户权限管理）-用户，选择用户【zz】，点击删除按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功删除用户管理中的zz用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新账户登入系统004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用新权限的用户登入系统测试营销页的编辑功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 设置-用户管理-角色-测试权限，选择营销页中的查看，过滤，搜索权限，点击保存角色
-2 执行测试用例：创建权限用户001
-3 内容-营销页，选择【2.1测试营销页】，点击编辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用【zz】用户成功登入系统
-2 营销页无法编辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-  </si>
-  <si>
-    <t>设置_营销渠道设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置_营销渠道设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置_营销渠道设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置_用户管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置_用户管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置_用户管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置_用户管理</t>
+    <t>设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户权限管理中创建新角色和新用户，并且用户可以正常登陆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息、权限和密码后这些信息可以正常生效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 对用户各类信息角色进行修改
+2 对用户的角色权限范围进行修改
+3 对用户的密码进行修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 用户信息正常生效
+2 用户权限符合修改后的权限范围
+3 用户使用修改后的密码可以登录系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,6 +204,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -407,7 +247,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,6 +343,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -538,6 +395,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,9 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -773,7 +649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -781,22 +657,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
@@ -808,14 +684,14 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -823,18 +699,18 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -847,323 +723,29 @@
         <v>16</v>
       </c>
       <c r="K3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4">
-        <v>7</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="4">
-        <v>8</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4">
-        <v>9</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/regression/testcase_ConvertLab_Setting.xlsx
+++ b/regression/testcase_ConvertLab_Setting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,13 +136,104 @@
 2 用户权限符合修改后的权限范围
 3 用户使用修改后的密码可以登录系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改系统账户密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击修改密码
+2 输入密码内容，信息私人化定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该账户的密码成功修改
+2 使用该账户的新密码成功登录系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置_用户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新用户002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建符合预期效果的新用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 设置-用户管理
+2 点击创建用户，填写信息：手机，姓名，邮箱，密码，选择管理员
+3 点击创建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建与预期信息一致的新用户，用户管理列表中存在该用户
+2 退出系统，使用新创建的账号成功登陆该系统，权限为管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码的情况下利用手机号码重设用户密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 执行用例：创建新用户002
+2 进入测试系统的登入界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击忘记密码
+2 输入创建用户是填写的手机号码，验证码，点击下一步
+3 输入手机收到的验证码，输入新的用户密码，点击下一步
+4 点击去登入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功重设与预期效果一致的新密码
+2 使用新密码成功登入系统
+3 使用旧密码无法登入系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,26 +434,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,23 +469,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
@@ -605,7 +662,7 @@
     <col min="8" max="8" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="40.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -691,7 +748,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="40.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -732,20 +789,146 @@
         <v>17</v>
       </c>
       <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="27">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="54">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="81">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -760,7 +943,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,7 +956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/regression/testcase_ConvertLab_Setting.xlsx
+++ b/regression/testcase_ConvertLab_Setting.xlsx
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="140">
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,21 +84,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>设置_用户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色和用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户权限管理中创建新角色和新用户，并且用户可以正常登陆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1 使用测试账户登入到ConvertLab系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建角色和用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -110,11 +114,231 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在用户权限管理中创建新角色和新用户，并且用户可以正常登陆</t>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_邀请用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户手机信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手机号码（手机号码需为11位，数字）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 设置-用户管理
+2 在创建用户信息完善界面，输入用户的手机号码（不足11位或超过11位，包含数字或字母或特殊字符），输入正确邮箱信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统弹出提示信息：手机号码格式不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户邮箱信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户邮箱格式正确（xx@xx.xx）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 设置-用户管理
+2 在创建用户信息完善界面，输入用户的邮箱（如：11@11，22.com等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统弹出提示信息：邮箱格式不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_邀请用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM Hub创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测用户邀请新客户功能可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 受邀人的邮箱在该环境下未注册使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 用户管理，点击用户邀请，输入受邀人的姓名、邮箱、角色信息，点击发送邀请
+2 受邀人收到了激活邮件，点击【激活并登录】按钮，激活账号
+3 在设置页面输入密码，并点击登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 受邀人成功收到系统邀请邮件，邮件信息格式与预设格式一致
+2 点击邮件中的激活按钮或激活链接，成功跳转到系统密码设置页面
+3 在系统密码设置页面，邮箱信息已成功补充，与受邀人邮箱相同
+4 系统密码信息成功设置，点击登录，成功跳转到DM Hub系统；系统成功弹出信息完善提示框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>DM Hub新用户登录001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测DM Hub新用户登录功能可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：DM Hub创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在用户信息完善界面，设置登录密码信息，密码和确认密码信息一致，并点击确定
+2 填写手机号码信息，获取验证码，并确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统成功弹出【恭喜您已完成设置工作】提示框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_邀请用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM Hub新用户登录002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在用户信息完善界面，设置登录密码信息，密码和确认密码填写不同信息，并点击确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统弹出提示框：密码和确认密码不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM Hub新用户登录003</t>
+  </si>
+  <si>
+    <t>1 在用户信息完善界面，输入密码信息（数字、小写字母、大写字母、特殊字符），点击确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统弹出提示框：密码长度8-20位，必须包含大小写字母和数字!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM Hub新用户登录004</t>
+  </si>
+  <si>
+    <t>1 在用户信息界面，输入密码信息，输入手机号码，获取验证码，输入错误验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统弹出提示框：验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM Hub老用户登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测邮箱或手机号码没有验证的老用户登录，系统弹出手机号码、邮箱验证提示信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统存在手机号码、邮箱未验证的用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用该用户账户登录到Convertab系统
+2 用户点击手机号码验证、发送邮件重新验证
+3 验证完成后再次使用账户登录系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统成功弹出提示框：手机号码、邮箱未验证，并弹出手机号码、邮箱验证界面
+2 用户成功完成验证，再次登录系统不会出现手机号码、邮箱未验证提示框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM Hub用户资料修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测DM Hub用户资料修改功能可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在系统主页中，进入用户资料编辑页面
+2 点击姓名字段的修改按钮，在新的输入框中修改信息并保存
+3 点击【邮箱】修改按钮，在新的输入框中修改信息，并点击获取验证码，输入验证码信息
+4 点击【手机号码】修改按钮，在新的输入框中修改信息，点击获取验证码，输入验证码信息
+5 【密码】进行相同操作
+6 使用新的用户名/手机号码/邮箱以及密码登录系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 用户信息成功修改
+2 使用新的账户信息成功登陆系统，用户信息显示与预设信息显示一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConverLab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -123,6 +347,10 @@
   </si>
   <si>
     <t>修改用户信息、权限和密码后这些信息可以正常生效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -138,8 +366,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ConvertLab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>邱鸿宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统设置</t>
@@ -151,10 +383,6 @@
   </si>
   <si>
     <t>修改系统账户密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -168,42 +396,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张庆云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置_用户管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建新用户002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建符合预期效果的新用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 设置-用户管理
-2 点击创建用户，填写信息：手机，姓名，邮箱，密码，选择管理员
-3 点击创建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建与预期信息一致的新用户，用户管理列表中存在该用户
-2 退出系统，使用新创建的账号成功登陆该系统，权限为管理员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码003</t>
+    <t>忘记密码002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -226,6 +419,205 @@
     <t>1 成功重设与预期效果一致的新密码
 2 使用新密码成功登入系统
 3 使用旧密码无法登入系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置_开放与集成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测是否能够创建与预设信息一致的app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 设置_开放与集成，点击新建，填写应用名称、描述信息
+2 对安全相关、客户基础信息、报表数据接口、用户行为采集中读、写权限进行选择勾选
+3 点击更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建与预设信息一致的app，成功生成appid和secret数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测app更新修改功能可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：创建app001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在开放与集成列表中，选择新建的app,修改应用名称、描述信息、权限，点击更新，修改内容自定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功修改与预设信息一致的app，成功生成appid和secret数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用app001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测使用app获得AccessToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：创建app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 设置_开放与集成，点击API参考文档【https://api.convertlab.com】
+2 身份权限：身份权限验证和测试接口，获取AccessToken，输入生成的appid和secret
+3 点击Try It Out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 response code 200，并成功获得AccessToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用app002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测使用获取的不同权限AccessToken进入API接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在ConvertLab Open API中使用AccessToken依据设置的权限进入身份权限、客户渠道账号、客户行为采集、客户事件、客户、客户订单、元数据、报表数据接口，并进行get、post、delete等行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用生成AccessToken成功进入客户渠道账号等接口，部分接口不能进入，与预先设置的app权限保持一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户身份接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测是否增加一个同时创建客户和渠道账号的API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 http://api.51convert.cn/，登录到ConvertLab开放平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用appid和secret在身份权限接口中获取accesstoken
+2 使用客户身份接口，POST /v1/customerandidentities，同时创建客户和其账户渠道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该客户成功是有接口创建，在客户列表中存在，客户信息与实际信息一致
+2 使用客户身份接口，GET /v1/customerandidentities，使用客户ID，获得的客户信息与实际信息一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测获取tenant基础信息的内部API和OpenAPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 http://api.51convert.cn/，登录到ConvertLab开放平台
+2 使用测试账户登录到Convertab系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在系统开放与集成中，创建App并赋予用户基础信息权限，使用appid和secret在身份权限接口中获取accesstoken，
+2 使用用户信息接口，GET /v1/user/current，获得用户信息，包括用户的用户的登录名，邮箱和租户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功使用该借口获得当前tenant的基础信息，包括用户的登录名、邮箱和租户信息，与实际信息一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenant配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenant配置中增加配置项-是否使用独立的druid datasource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用tms账号登录到Tenant配置系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在Tenant配置系统中查看配置项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在tenant配置项列存在是否使用独立的druid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测用户信息修改过程中邮箱和手机号码唯一（包括同一tenant和其他tenant下）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 在tenant26系统下用户管理中已存在用户[demo],其手机号码、邮箱分别为【111】【222@163.com】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在tenant26/tenant28系统下创建新用户，输入手机号码【111】，邮箱【666@163.com】,其他信息自定义，点击确定
+2 在在tenant26/tenant28系统下创建新用户，输入手机号码【444】，邮箱【222@163.com】,其他信息自定义，点击确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 无法创建该用户，弹出提示框：手机号码（111）已存在
+2 无法创建该用户，弹出提示框：邮箱（222@163.com）已存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测删除app功能可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 创建app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 设置_开放与集成，点击新创建的app
+2 点击删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功删除,新建app在开放与集成列表中不存在</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +663,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="dengxian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="dengxian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="dengxian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,7 +699,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -314,11 +733,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -339,6 +795,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,65 +1134,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
     <col min="7" max="7" width="42.25" customWidth="1"/>
-    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="8" max="8" width="37.125" customWidth="1"/>
+    <col min="14" max="14" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="40.5">
@@ -711,225 +1201,935 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="40.5">
+    <row r="3" spans="1:14" ht="54">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="27">
+    <row r="4" spans="1:14" ht="40.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C4" s="9"/>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="54">
+    <row r="5" spans="1:14" ht="128.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>2</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="81">
+      <c r="M5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="42.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" ht="28.5">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>2</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="28.5">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>2</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.5">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" ht="57">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="142.5">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="27">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="81">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="67.5">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="40.5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="67.5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="54">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="67.5">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="81">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="27">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="81">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="27">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E6:E9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I23">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
-      <formula1>"None,Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K23">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M23">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J23">
+      <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
